--- a/포트폴리오/윤도균/공채달력.xlsx
+++ b/포트폴리오/윤도균/공채달력.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{1897030B-B31B-46E5-B94D-69331AE7DFA9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52516885-54BE-450D-BF6F-3EF0F8D5B2BA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="671" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="671" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="상시모집" sheetId="26" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="50">
   <si>
     <t>NOTES:</t>
   </si>
@@ -71,202 +71,185 @@
   </si>
   <si>
     <t>사명</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>모집 분야</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>프로젝트</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>네오플</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>레벨 기획</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>레벨 디자인 경력, 3D 더미 제작 가능</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>특이사항 (요구사항)</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>던전앤파이터2D (모바일)</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>컨텐츠 기획</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>던전앤파이터</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>스마일게이트</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>로스트아크</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>UI/UX 기획</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>로아 컨텐츠와 시스템 이해, 개성이 없고 적응이 빠를 것</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>문서화능력, Live컨텐츠 이해, 프로그래밍언어 이해, 던파 이해</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>넷마블 몬스터</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>스킬 기획, 툴 작업</t>
   </si>
   <si>
     <t>이데아게임즈(넷마블계열)</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>OverKill (신규)</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>A3:Still Alive (신규)</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>대전액션에 관심과 이해, 액션게임 실력, 분석력</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>마블퓨처파이트</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>요괴워치</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>전투 기획 or 시스템 기획</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>일본향 RPG 이해, 요괴워치IP 이해</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>신규 프로젝트(MMORPG)</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>전투/시스템 or 레벨/컨텐츠 기획</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>기타</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>라이온하트스튜디오</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>모바일MMORPG</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>시스템 or 컨텐츠 기획</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>Unity 경험, 프로그래밍언어 이해, 2D 연출 이해, 넓은 폭의 장르 선호</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>Unity 경험, 엑셀 및 VBA 사용, 마블 세계관 이해</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>언리얼4 경험, 모바일 개발 경험, (시스템)UI/UX이해, (레벨)레벨디자인 툴 경험</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>언리얼 경험</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>넷마블 공채 (~9.23)</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>넷마블 접수 마감</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>블루홀 접수 마감</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>넷게임즈(MX스튜디오)</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>수집형 RPG</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>전투시스템/밸런스/컨텐츠 기획</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>수집형RPG 이해, 일본 서브컬쳐 이해</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>블루홀 공채(~10.03)</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>PUBG(크래프톤 계열)</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>콘솔 슈팅</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>넷마블 공채 필기</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>넷마블</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1" tint="4.9989318521683403E-2"/>
-        <rFont val="돋움"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 공채 면접 11월 말 ~ 12월 초</t>
-    </r>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>NC 공채</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>스마일게이트 접수 마감 
+게임빌 접수 마감</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>넷마블 접수 마감
+스마일게이트 공채</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>NC 접수 마감
+크래프톤 공채</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>크래프톤 접수 마감</t>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -277,17 +260,10 @@
     <numFmt numFmtId="176" formatCode="d"/>
     <numFmt numFmtId="177" formatCode=";;;"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1" tint="4.9989318521683403E-2"/>
-      <name val="Century Gothic"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Century Gothic"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -370,13 +346,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1" tint="4.9989318521683403E-2"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
@@ -405,9 +374,44 @@
       <charset val="129"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1" tint="4.9989318521683403E-2"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="2" tint="-0.89996032593768116"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
       <sz val="13"/>
       <color theme="1" tint="4.9989318521683403E-2"/>
-      <name val="돋움"/>
+      <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
     </font>
@@ -805,89 +809,62 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyProtection="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyProtection="0">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" applyNumberFormat="0" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyProtection="0">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyFill="0" applyBorder="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyFill="0" applyBorder="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="9">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="9">
       <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="5">
-      <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="3">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="10" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="10" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="2" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="2" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="6" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="6" borderId="1" xfId="9" applyFill="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="6" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="7" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="7" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
@@ -896,82 +873,115 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="9" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="9" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="7" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="7" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="9" applyFill="1">
+    <xf numFmtId="177" fontId="16" fillId="2" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="16" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="3" applyFont="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="19" fillId="0" borderId="1" xfId="9" applyFont="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="2" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="10" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="2" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="2" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="4">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="19" fillId="0" borderId="1" xfId="9" applyFont="1" applyFill="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="2" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="2" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="19" fillId="6" borderId="1" xfId="9" applyFont="1" applyFill="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="16" fillId="2" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="5" applyFont="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="2" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="5" xfId="4" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="6">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="6" applyFont="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="7">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="7" applyFont="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="6" applyFont="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="7" applyFont="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="2" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
@@ -990,19 +1000,7 @@
     <cellStyle name="좋음" xfId="12" builtinId="26"/>
     <cellStyle name="표준" xfId="0" builtinId="0" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="27">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
+  <dxfs count="25">
     <dxf>
       <fill>
         <patternFill>
@@ -2161,7 +2159,7 @@
   <dimension ref="B1:G24"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2174,264 +2172,260 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:7" s="3" customFormat="1" ht="43.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="15" t="s">
+    <row r="2" spans="2:7" s="2" customFormat="1" ht="43.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="30" t="s">
+      <c r="D2" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="31" t="s">
+      <c r="F2" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="G2" s="7" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="3" spans="2:7" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="14"/>
-      <c r="C3" s="19" t="s">
+      <c r="B3" s="5"/>
+      <c r="C3" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="21" t="s">
+      <c r="E3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="32" t="s">
+      <c r="F3" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="22"/>
+      <c r="G3" s="13"/>
     </row>
     <row r="4" spans="2:7" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="D4" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="25" t="s">
+      <c r="E4" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="33" t="s">
+      <c r="F4" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="G4" s="26"/>
+      <c r="G4" s="17"/>
     </row>
     <row r="5" spans="2:7" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="24" t="s">
+      <c r="D5" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="25" t="s">
+      <c r="E5" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="33" t="s">
+      <c r="F5" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="26"/>
+      <c r="G5" s="17"/>
     </row>
     <row r="6" spans="2:7" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="24" t="s">
+      <c r="D6" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="25" t="s">
+      <c r="E6" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="33" t="s">
+      <c r="F6" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="26"/>
+      <c r="G6" s="17"/>
     </row>
     <row r="7" spans="2:7" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="23" t="s">
+      <c r="C7" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="24" t="s">
+      <c r="D7" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="25" t="s">
+      <c r="E7" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="33" t="s">
+      <c r="F7" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="26"/>
+      <c r="G7" s="17"/>
     </row>
     <row r="8" spans="2:7" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="23" t="s">
+      <c r="C8" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="24" t="s">
+      <c r="D8" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="25" t="s">
+      <c r="E8" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="33" t="s">
+      <c r="F8" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="G8" s="26"/>
+      <c r="G8" s="17"/>
     </row>
     <row r="9" spans="2:7" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C9" s="23" t="s">
+      <c r="C9" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="24" t="s">
+      <c r="D9" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="25" t="s">
+      <c r="E9" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="33" t="s">
+      <c r="F9" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="G9" s="26"/>
+      <c r="G9" s="17"/>
     </row>
     <row r="10" spans="2:7" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="23" t="s">
+      <c r="C10" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="24" t="s">
+      <c r="D10" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="25" t="s">
+      <c r="E10" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="33" t="s">
+      <c r="F10" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="G10" s="26"/>
+      <c r="G10" s="17"/>
     </row>
     <row r="11" spans="2:7" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C11" s="23" t="s">
+      <c r="C11" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="24" t="s">
+      <c r="D11" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="E11" s="25" t="s">
+      <c r="E11" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="F11" s="33" t="s">
+      <c r="F11" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="G11" s="17"/>
+      <c r="G11" s="8"/>
     </row>
     <row r="12" spans="2:7" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="23" t="s">
+      <c r="C12" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="D12" s="24" t="s">
+      <c r="F12" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="E12" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="F12" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="G12" s="17"/>
+      <c r="G12" s="8"/>
     </row>
     <row r="13" spans="2:7" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C13" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="D13" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="E13" s="25"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="17"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="8"/>
     </row>
     <row r="14" spans="2:7" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C14" s="23"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="17"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="8"/>
     </row>
     <row r="15" spans="2:7" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="23"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="17"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="8"/>
     </row>
     <row r="16" spans="2:7" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="23"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="17"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="8"/>
     </row>
     <row r="17" spans="3:7" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C17" s="23"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="17"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="8"/>
     </row>
     <row r="18" spans="3:7" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C18" s="23"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="33"/>
-      <c r="G18" s="17"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="8"/>
     </row>
     <row r="19" spans="3:7" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C19" s="23"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="17"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="8"/>
     </row>
     <row r="20" spans="3:7" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C20" s="23"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="33"/>
-      <c r="G20" s="17"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="8"/>
     </row>
     <row r="21" spans="3:7" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C21" s="23"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="33"/>
-      <c r="G21" s="17"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="8"/>
     </row>
     <row r="22" spans="3:7" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C22" s="23"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="33"/>
-      <c r="G22" s="17"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="8"/>
     </row>
     <row r="23" spans="3:7" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C23" s="23"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="33"/>
-      <c r="G23" s="17"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="8"/>
     </row>
     <row r="24" spans="3:7" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C24" s="27"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="34"/>
-      <c r="G24" s="18"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="9"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="12" type="noConversion"/>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2445,298 +2439,298 @@
   <dimension ref="B1:L17"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.8984375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.8984375" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.59765625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="21.59765625" style="3" customWidth="1"/>
-    <col min="3" max="9" width="18.3984375" style="3" customWidth="1"/>
-    <col min="10" max="10" width="2.59765625" style="3" customWidth="1"/>
-    <col min="11" max="11" width="18.5" style="3" customWidth="1"/>
-    <col min="12" max="12" width="12.19921875" style="3" customWidth="1"/>
-    <col min="13" max="16384" width="9.8984375" style="3"/>
+    <col min="1" max="1" width="2.59765625" style="27" customWidth="1"/>
+    <col min="2" max="2" width="21.59765625" style="27" customWidth="1"/>
+    <col min="3" max="9" width="18.3984375" style="27" customWidth="1"/>
+    <col min="10" max="10" width="2.59765625" style="27" customWidth="1"/>
+    <col min="11" max="11" width="18.5" style="27" customWidth="1"/>
+    <col min="12" max="12" width="12.19921875" style="27" customWidth="1"/>
+    <col min="13" max="16384" width="9.8984375" style="27"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="8">
+      <c r="B1" s="39">
         <f ca="1">CalendarYear</f>
         <v>2019</v>
       </c>
-      <c r="K1" s="38" t="s">
+      <c r="K1" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="38"/>
-    </row>
-    <row r="2" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="8" t="str">
+      <c r="L1" s="42"/>
+    </row>
+    <row r="2" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B2" s="39" t="str">
         <f ca="1">UPPER(TEXT(C5,"mmmm"))</f>
         <v>JANUARY</v>
       </c>
-      <c r="C2" s="4" t="str">
+      <c r="C2" s="29" t="str">
         <f>UPPER(TEXT(WeekStart,"ddd"))</f>
         <v>SUN</v>
       </c>
-      <c r="D2" s="4" t="str">
+      <c r="D2" s="29" t="str">
         <f t="shared" ref="D2:I2" ca="1" si="0">UPPER(TEXT(D3,"ddd"))</f>
         <v>MON</v>
       </c>
-      <c r="E2" s="4" t="str">
+      <c r="E2" s="29" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>TUE</v>
       </c>
-      <c r="F2" s="4" t="str">
+      <c r="F2" s="29" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>WED</v>
       </c>
-      <c r="G2" s="4" t="str">
+      <c r="G2" s="29" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>THU</v>
       </c>
-      <c r="H2" s="4" t="str">
+      <c r="H2" s="29" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>FRI</v>
       </c>
-      <c r="I2" s="4" t="str">
+      <c r="I2" s="29" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>SAT</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="L2" s="2">
+      <c r="L2" s="40">
         <f ca="1">YEAR(TODAY())</f>
         <v>2019</v>
       </c>
     </row>
-    <row r="3" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="11"/>
-      <c r="C3" s="1">
+    <row r="3" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B3" s="30"/>
+      <c r="C3" s="31">
         <f t="array" aca="1" ref="C3:I3" ca="1">DaysAndWeeks+DATE(CalendarYear,1,1)-WEEKDAY(DATE(CalendarYear,1,1),(WeekStart="Mon")+1)+1</f>
         <v>43464</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="31">
         <f ca="1"/>
         <v>43465</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="31">
         <f ca="1"/>
         <v>43466</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="31">
         <f ca="1"/>
         <v>43467</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="31">
         <f ca="1"/>
         <v>43468</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H3" s="31">
         <f ca="1"/>
         <v>43469</v>
       </c>
-      <c r="I3" s="1">
+      <c r="I3" s="31">
         <f ca="1"/>
         <v>43470</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="L3" s="40" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="2:12" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
     </row>
     <row r="5" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="1">
+      <c r="C5" s="31">
         <f t="array" aca="1" ref="C5:I5" ca="1">DaysAndWeeks+DATE(CalendarYear,1,1)-WEEKDAY(DATE(CalendarYear,1,1),(WeekStart="Mon")+1)+8</f>
         <v>43471</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="31">
         <f ca="1"/>
         <v>43472</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="31">
         <f ca="1"/>
         <v>43473</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="31">
         <f ca="1"/>
         <v>43474</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="31">
         <f ca="1"/>
         <v>43475</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5" s="31">
         <f ca="1"/>
         <v>43476</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5" s="31">
         <f ca="1"/>
         <v>43477</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="5"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="32"/>
     </row>
     <row r="7" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="1">
+      <c r="C7" s="31">
         <f t="array" aca="1" ref="C7:I7" ca="1">DaysAndWeeks+DATE(CalendarYear,1,1)-WEEKDAY(DATE(CalendarYear,1,1),(WeekStart="Mon")+1)+15</f>
         <v>43478</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="31">
         <f ca="1"/>
         <v>43479</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="31">
         <f ca="1"/>
         <v>43480</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="31">
         <f ca="1"/>
         <v>43481</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="31">
         <f ca="1"/>
         <v>43482</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H7" s="31">
         <f ca="1"/>
         <v>43483</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I7" s="31">
         <f ca="1"/>
         <v>43484</v>
       </c>
     </row>
     <row r="8" spans="2:12" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="5"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="32"/>
     </row>
     <row r="9" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C9" s="1">
+      <c r="C9" s="31">
         <f t="array" aca="1" ref="C9:I9" ca="1">DaysAndWeeks+DATE(CalendarYear,1,1)-WEEKDAY(DATE(CalendarYear,1,1),(WeekStart="Mon")+1)+22</f>
         <v>43485</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="31">
         <f ca="1"/>
         <v>43486</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="31">
         <f ca="1"/>
         <v>43487</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="31">
         <f ca="1"/>
         <v>43488</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9" s="31">
         <f ca="1"/>
         <v>43489</v>
       </c>
-      <c r="H9" s="1">
+      <c r="H9" s="31">
         <f ca="1"/>
         <v>43490</v>
       </c>
-      <c r="I9" s="1">
+      <c r="I9" s="31">
         <f ca="1"/>
         <v>43491</v>
       </c>
     </row>
     <row r="10" spans="2:12" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="32"/>
     </row>
     <row r="11" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C11" s="1">
+      <c r="C11" s="31">
         <f t="array" aca="1" ref="C11:I11" ca="1">DaysAndWeeks+DATE(CalendarYear,1,1)-WEEKDAY(DATE(CalendarYear,1,1),(WeekStart="Mon")+1)+29</f>
         <v>43492</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="31">
         <f ca="1"/>
         <v>43493</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="31">
         <f ca="1"/>
         <v>43494</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="31">
         <f ca="1"/>
         <v>43495</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11" s="31">
         <f ca="1"/>
         <v>43496</v>
       </c>
-      <c r="H11" s="1">
+      <c r="H11" s="31">
         <f ca="1"/>
         <v>43497</v>
       </c>
-      <c r="I11" s="1">
+      <c r="I11" s="31">
         <f ca="1"/>
         <v>43498</v>
       </c>
     </row>
     <row r="12" spans="2:12" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="32"/>
     </row>
     <row r="13" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C13" s="1">
+      <c r="C13" s="31">
         <f t="array" aca="1" ref="C13:D13" ca="1">DaysAndWeeks+DATE(CalendarYear,1,1)-WEEKDAY(DATE(CalendarYear,1,1),(WeekStart="Mon")+1)+36</f>
         <v>43499</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="31">
         <f ca="1"/>
         <v>43500</v>
       </c>
-      <c r="E13" s="39" t="s">
+      <c r="E13" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="F13" s="40"/>
-      <c r="G13" s="40"/>
-      <c r="H13" s="40"/>
-      <c r="I13" s="40"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="44"/>
+      <c r="I13" s="44"/>
     </row>
     <row r="14" spans="2:12" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="40"/>
-      <c r="I14" s="40"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="44"/>
+      <c r="H14" s="44"/>
+      <c r="I14" s="44"/>
     </row>
     <row r="15" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2747,29 +2741,29 @@
     <mergeCell ref="E13:E14"/>
     <mergeCell ref="F13:I14"/>
   </mergeCells>
-  <phoneticPr fontId="12" type="noConversion"/>
+  <phoneticPr fontId="11" type="noConversion"/>
   <conditionalFormatting sqref="C11:I11 C13:D13">
-    <cfRule type="expression" dxfId="26" priority="5">
+    <cfRule type="expression" dxfId="24" priority="5">
       <formula>AND(DAY(C11)&gt;=1,DAY(C11)&lt;=15)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:H3">
-    <cfRule type="expression" dxfId="25" priority="4">
+    <cfRule type="expression" dxfId="23" priority="4">
       <formula>DAY(C3)&gt;8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:C14">
-    <cfRule type="expression" dxfId="24" priority="3">
+    <cfRule type="expression" dxfId="22" priority="3">
       <formula>C$2="SUN"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:I4 H5:I12">
-    <cfRule type="expression" dxfId="23" priority="2">
+    <cfRule type="expression" dxfId="21" priority="2">
       <formula>H$2="SAT"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3:I4 I5:I12">
-    <cfRule type="expression" dxfId="22" priority="1">
+    <cfRule type="expression" dxfId="20" priority="1">
       <formula>$I$2="SUN"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2809,62 +2803,69 @@
   <dimension ref="B1:I17"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.8984375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.59765625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="21.59765625" style="3" customWidth="1"/>
-    <col min="3" max="9" width="18.3984375" style="3" customWidth="1"/>
-    <col min="10" max="10" width="2.59765625" style="3" customWidth="1"/>
-    <col min="11" max="11" width="8.69921875" style="3" customWidth="1"/>
-    <col min="12" max="16384" width="9.8984375" style="3"/>
+    <col min="1" max="1" width="2.59765625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="21.59765625" style="2" customWidth="1"/>
+    <col min="3" max="9" width="18.3984375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="2.59765625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="8.69921875" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="9.8984375" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="9">
+      <c r="B1" s="26">
         <f ca="1">CalendarYear</f>
         <v>2019</v>
       </c>
-    </row>
-    <row r="2" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="10" t="str">
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+    </row>
+    <row r="2" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B2" s="28" t="str">
         <f ca="1">UPPER(TEXT(C5,"mmmm"))</f>
         <v>SEPTEMBER</v>
       </c>
-      <c r="C2" s="4" t="str">
+      <c r="C2" s="29" t="str">
         <f>UPPER(TEXT(WeekStart,"ddd"))</f>
         <v>SUN</v>
       </c>
-      <c r="D2" s="4" t="str">
+      <c r="D2" s="29" t="str">
         <f t="shared" ref="D2:I2" ca="1" si="0">UPPER(TEXT(D3,"ddd"))</f>
         <v>MON</v>
       </c>
-      <c r="E2" s="4" t="str">
+      <c r="E2" s="29" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>TUE</v>
       </c>
-      <c r="F2" s="4" t="str">
+      <c r="F2" s="29" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>WED</v>
       </c>
-      <c r="G2" s="4" t="str">
+      <c r="G2" s="29" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>THU</v>
       </c>
-      <c r="H2" s="4" t="str">
+      <c r="H2" s="29" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>FRI</v>
       </c>
-      <c r="I2" s="4" t="str">
+      <c r="I2" s="29" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>SAT</v>
       </c>
     </row>
     <row r="3" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="11"/>
-      <c r="C3" s="1">
+      <c r="B3" s="30"/>
+      <c r="C3" s="31">
         <f t="array" aca="1" ref="C3:I3" ca="1">DaysAndWeeks+DATE(CalendarYear,9,1)-WEEKDAY(DATE(CalendarYear,9,1),(WeekStart="Mon")+1)+1</f>
         <v>43709</v>
       </c>
@@ -2888,24 +2889,26 @@
         <f ca="1"/>
         <v>43714</v>
       </c>
-      <c r="I3" s="1">
+      <c r="I3" s="31">
         <f ca="1"/>
         <v>43715</v>
       </c>
     </row>
     <row r="4" spans="2:9" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="5"/>
-      <c r="D4" s="37" t="s">
+      <c r="B4" s="27"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="12"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="37"/>
     </row>
     <row r="5" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="13">
+      <c r="B5" s="27"/>
+      <c r="C5" s="38">
         <f t="array" aca="1" ref="C5:I5" ca="1">DaysAndWeeks+DATE(CalendarYear,9,1)-WEEKDAY(DATE(CalendarYear,9,1),(WeekStart="Mon")+1)+8</f>
         <v>43716</v>
       </c>
@@ -2929,22 +2932,24 @@
         <f ca="1"/>
         <v>43721</v>
       </c>
-      <c r="I5" s="13">
+      <c r="I5" s="38">
         <f ca="1"/>
         <v>43722</v>
       </c>
     </row>
     <row r="6" spans="2:9" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="12"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="12"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="37"/>
     </row>
     <row r="7" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="13">
+      <c r="B7" s="27"/>
+      <c r="C7" s="38">
         <f t="array" aca="1" ref="C7:I7" ca="1">DaysAndWeeks+DATE(CalendarYear,9,1)-WEEKDAY(DATE(CalendarYear,9,1),(WeekStart="Mon")+1)+15</f>
         <v>43723</v>
       </c>
@@ -2968,24 +2973,24 @@
         <f ca="1"/>
         <v>43728</v>
       </c>
-      <c r="I7" s="13">
+      <c r="I7" s="38">
         <f ca="1"/>
         <v>43729</v>
       </c>
     </row>
     <row r="8" spans="2:9" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="12"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="37" t="s">
-        <v>47</v>
-      </c>
-      <c r="H8" s="6"/>
-      <c r="I8" s="12"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="37"/>
     </row>
     <row r="9" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C9" s="13">
+      <c r="B9" s="27"/>
+      <c r="C9" s="38">
         <f t="array" aca="1" ref="C9:I9" ca="1">DaysAndWeeks+DATE(CalendarYear,9,1)-WEEKDAY(DATE(CalendarYear,9,1),(WeekStart="Mon")+1)+22</f>
         <v>43730</v>
       </c>
@@ -3009,60 +3014,64 @@
         <f ca="1"/>
         <v>43735</v>
       </c>
-      <c r="I9" s="1">
+      <c r="I9" s="31">
         <f ca="1"/>
         <v>43736</v>
       </c>
     </row>
     <row r="10" spans="2:9" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="12"/>
-      <c r="D10" s="36" t="s">
-        <v>41</v>
-      </c>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="5"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="32"/>
     </row>
     <row r="11" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C11" s="1">
+      <c r="B11" s="27"/>
+      <c r="C11" s="31">
         <f t="array" aca="1" ref="C11:I11" ca="1">DaysAndWeeks+DATE(CalendarYear,9,1)-WEEKDAY(DATE(CalendarYear,9,1),(WeekStart="Mon")+1)+29</f>
         <v>43737</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="31">
         <f ca="1"/>
         <v>43738</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="31">
         <f ca="1"/>
         <v>43739</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="31">
         <f ca="1"/>
         <v>43740</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11" s="31">
         <f ca="1"/>
         <v>43741</v>
       </c>
-      <c r="H11" s="1">
+      <c r="H11" s="31">
         <f ca="1"/>
         <v>43742</v>
       </c>
-      <c r="I11" s="1">
+      <c r="I11" s="31">
         <f ca="1"/>
         <v>43743</v>
       </c>
     </row>
     <row r="12" spans="2:9" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
     </row>
     <row r="13" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C13" s="1">
@@ -3073,22 +3082,22 @@
         <f ca="1"/>
         <v>43745</v>
       </c>
-      <c r="E13" s="41" t="s">
+      <c r="E13" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="F13" s="42"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="42"/>
-      <c r="I13" s="42"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="46"/>
+      <c r="I13" s="46"/>
     </row>
     <row r="14" spans="2:9" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="41"/>
-      <c r="F14" s="42"/>
-      <c r="G14" s="42"/>
-      <c r="H14" s="42"/>
-      <c r="I14" s="42"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="46"/>
+      <c r="H14" s="46"/>
+      <c r="I14" s="46"/>
     </row>
     <row r="15" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3098,29 +3107,29 @@
     <mergeCell ref="E13:E14"/>
     <mergeCell ref="F13:I14"/>
   </mergeCells>
-  <phoneticPr fontId="12" type="noConversion"/>
+  <phoneticPr fontId="11" type="noConversion"/>
   <conditionalFormatting sqref="C11:I11 C13:D13">
-    <cfRule type="expression" dxfId="21" priority="5">
+    <cfRule type="expression" dxfId="19" priority="5">
       <formula>AND(DAY(C11)&gt;=1,DAY(C11)&lt;=15)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:H4">
-    <cfRule type="expression" dxfId="20" priority="4">
+    <cfRule type="expression" dxfId="18" priority="4">
       <formula>DAY(C3)&gt;8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:C14">
-    <cfRule type="expression" dxfId="19" priority="3">
+    <cfRule type="expression" dxfId="17" priority="3">
       <formula>C$2="SUN"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:I12">
-    <cfRule type="expression" dxfId="18" priority="2">
+    <cfRule type="expression" dxfId="16" priority="2">
       <formula>H$2="SAT"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3:I12">
-    <cfRule type="expression" dxfId="17" priority="1">
+    <cfRule type="expression" dxfId="15" priority="1">
       <formula>$I$2="SUN"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3152,257 +3161,276 @@
   </sheetPr>
   <dimension ref="B1:I17"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.8984375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.59765625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="21.59765625" style="3" customWidth="1"/>
-    <col min="3" max="9" width="18.3984375" style="3" customWidth="1"/>
-    <col min="10" max="10" width="2.59765625" style="3" customWidth="1"/>
-    <col min="11" max="11" width="8.69921875" style="3" customWidth="1"/>
-    <col min="12" max="16384" width="9.8984375" style="3"/>
+    <col min="1" max="1" width="2.59765625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="21.59765625" style="2" customWidth="1"/>
+    <col min="3" max="9" width="18.3984375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="2.59765625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="8.69921875" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="9.8984375" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="9">
+      <c r="B1" s="26">
         <f ca="1">CalendarYear</f>
         <v>2019</v>
       </c>
-    </row>
-    <row r="2" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="10" t="str">
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+    </row>
+    <row r="2" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B2" s="28" t="str">
         <f ca="1">UPPER(TEXT(C5,"mmmm"))</f>
         <v>OCTOBER</v>
       </c>
-      <c r="C2" s="4" t="str">
+      <c r="C2" s="29" t="str">
         <f>UPPER(TEXT(WeekStart,"ddd"))</f>
         <v>SUN</v>
       </c>
-      <c r="D2" s="4" t="str">
+      <c r="D2" s="29" t="str">
         <f t="shared" ref="D2:I2" ca="1" si="0">UPPER(TEXT(D3,"ddd"))</f>
         <v>MON</v>
       </c>
-      <c r="E2" s="4" t="str">
+      <c r="E2" s="29" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>TUE</v>
       </c>
-      <c r="F2" s="4" t="str">
+      <c r="F2" s="29" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>WED</v>
       </c>
-      <c r="G2" s="4" t="str">
+      <c r="G2" s="29" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>THU</v>
       </c>
-      <c r="H2" s="4" t="str">
+      <c r="H2" s="29" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>FRI</v>
       </c>
-      <c r="I2" s="4" t="str">
+      <c r="I2" s="29" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>SAT</v>
       </c>
     </row>
     <row r="3" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="11"/>
-      <c r="C3" s="1">
+      <c r="B3" s="30"/>
+      <c r="C3" s="31">
         <f t="array" aca="1" ref="C3:I3" ca="1">DaysAndWeeks+DATE(CalendarYear,10,1)-WEEKDAY(DATE(CalendarYear,10,1),(WeekStart="Mon")+1)+1</f>
         <v>43737</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="31">
         <f ca="1"/>
         <v>43738</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="31">
         <f ca="1"/>
         <v>43739</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="31">
         <f ca="1"/>
         <v>43740</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="31">
         <f ca="1"/>
         <v>43741</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H3" s="31">
         <f ca="1"/>
         <v>43742</v>
       </c>
-      <c r="I3" s="1">
+      <c r="I3" s="31">
         <f ca="1"/>
         <v>43743</v>
       </c>
     </row>
     <row r="4" spans="2:9" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="36" t="s">
-        <v>42</v>
-      </c>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
     </row>
     <row r="5" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="1">
+      <c r="B5" s="27"/>
+      <c r="C5" s="31">
         <f t="array" aca="1" ref="C5:I5" ca="1">DaysAndWeeks+DATE(CalendarYear,10,1)-WEEKDAY(DATE(CalendarYear,10,1),(WeekStart="Mon")+1)+8</f>
         <v>43744</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="31">
         <f ca="1"/>
         <v>43745</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="31">
         <f ca="1"/>
         <v>43746</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="31">
         <f ca="1"/>
         <v>43747</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="31">
         <f ca="1"/>
         <v>43748</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5" s="31">
         <f ca="1"/>
         <v>43749</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5" s="31">
         <f ca="1"/>
         <v>43750</v>
       </c>
     </row>
     <row r="6" spans="2:9" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" s="32"/>
+      <c r="I6" s="32"/>
     </row>
     <row r="7" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="1">
+      <c r="B7" s="27"/>
+      <c r="C7" s="31">
         <f t="array" aca="1" ref="C7:I7" ca="1">DaysAndWeeks+DATE(CalendarYear,10,1)-WEEKDAY(DATE(CalendarYear,10,1),(WeekStart="Mon")+1)+15</f>
         <v>43751</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="31">
         <f ca="1"/>
         <v>43752</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="31">
         <f ca="1"/>
         <v>43753</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="31">
         <f ca="1"/>
         <v>43754</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="31">
         <f ca="1"/>
         <v>43755</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H7" s="31">
         <f ca="1"/>
         <v>43756</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I7" s="31">
         <f ca="1"/>
         <v>43757</v>
       </c>
     </row>
     <row r="8" spans="2:9" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="6"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="G8" s="34"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="32"/>
     </row>
     <row r="9" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C9" s="1">
+      <c r="B9" s="27"/>
+      <c r="C9" s="31">
         <f t="array" aca="1" ref="C9:I9" ca="1">DaysAndWeeks+DATE(CalendarYear,10,1)-WEEKDAY(DATE(CalendarYear,10,1),(WeekStart="Mon")+1)+22</f>
         <v>43758</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="31">
         <f ca="1"/>
         <v>43759</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="31">
         <f ca="1"/>
         <v>43760</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="31">
         <f ca="1"/>
         <v>43761</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9" s="31">
         <f ca="1"/>
         <v>43762</v>
       </c>
-      <c r="H9" s="1">
+      <c r="H9" s="31">
         <f ca="1"/>
         <v>43763</v>
       </c>
-      <c r="I9" s="1">
+      <c r="I9" s="31">
         <f ca="1"/>
         <v>43764</v>
       </c>
     </row>
     <row r="10" spans="2:9" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="32"/>
     </row>
     <row r="11" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C11" s="1">
+      <c r="B11" s="27"/>
+      <c r="C11" s="31">
         <f t="array" aca="1" ref="C11:I11" ca="1">DaysAndWeeks+DATE(CalendarYear,10,1)-WEEKDAY(DATE(CalendarYear,10,1),(WeekStart="Mon")+1)+29</f>
         <v>43765</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="31">
         <f ca="1"/>
         <v>43766</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="31">
         <f ca="1"/>
         <v>43767</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="31">
         <f ca="1"/>
         <v>43768</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11" s="31">
         <f ca="1"/>
         <v>43769</v>
       </c>
-      <c r="H11" s="1">
+      <c r="H11" s="31">
         <f ca="1"/>
         <v>43770</v>
       </c>
-      <c r="I11" s="1">
+      <c r="I11" s="31">
         <f ca="1"/>
         <v>43771</v>
       </c>
     </row>
     <row r="12" spans="2:9" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
     </row>
     <row r="13" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C13" s="1">
@@ -3413,22 +3441,22 @@
         <f ca="1"/>
         <v>43773</v>
       </c>
-      <c r="E13" s="41" t="s">
+      <c r="E13" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="F13" s="42"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="42"/>
-      <c r="I13" s="42"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="46"/>
+      <c r="I13" s="46"/>
     </row>
     <row r="14" spans="2:9" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="41"/>
-      <c r="F14" s="42"/>
-      <c r="G14" s="42"/>
-      <c r="H14" s="42"/>
-      <c r="I14" s="42"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="46"/>
+      <c r="H14" s="46"/>
+      <c r="I14" s="46"/>
     </row>
     <row r="15" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3438,29 +3466,29 @@
     <mergeCell ref="E13:E14"/>
     <mergeCell ref="F13:I14"/>
   </mergeCells>
-  <phoneticPr fontId="12" type="noConversion"/>
+  <phoneticPr fontId="11" type="noConversion"/>
   <conditionalFormatting sqref="C11:I11 C13:D13">
-    <cfRule type="expression" dxfId="16" priority="5">
+    <cfRule type="expression" dxfId="14" priority="5">
       <formula>AND(DAY(C11)&gt;=1,DAY(C11)&lt;=15)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:H4">
-    <cfRule type="expression" dxfId="15" priority="4">
+    <cfRule type="expression" dxfId="13" priority="4">
       <formula>DAY(C3)&gt;8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:C14">
-    <cfRule type="expression" dxfId="14" priority="3">
+    <cfRule type="expression" dxfId="12" priority="3">
       <formula>C$2="SUN"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:I12">
-    <cfRule type="expression" dxfId="13" priority="2">
+    <cfRule type="expression" dxfId="11" priority="2">
       <formula>H$2="SAT"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3:I12">
-    <cfRule type="expression" dxfId="12" priority="1">
+    <cfRule type="expression" dxfId="10" priority="1">
       <formula>$I$2="SUN"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3492,285 +3520,281 @@
   </sheetPr>
   <dimension ref="B1:I17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.8984375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.8984375" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.59765625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="21.59765625" style="3" customWidth="1"/>
-    <col min="3" max="9" width="18.3984375" style="3" customWidth="1"/>
-    <col min="10" max="10" width="2.59765625" style="3" customWidth="1"/>
-    <col min="11" max="11" width="8.69921875" style="3" customWidth="1"/>
-    <col min="12" max="16384" width="9.8984375" style="3"/>
+    <col min="1" max="1" width="2.59765625" style="27" customWidth="1"/>
+    <col min="2" max="2" width="21.59765625" style="27" customWidth="1"/>
+    <col min="3" max="9" width="18.3984375" style="27" customWidth="1"/>
+    <col min="10" max="10" width="2.59765625" style="27" customWidth="1"/>
+    <col min="11" max="11" width="8.69921875" style="27" customWidth="1"/>
+    <col min="12" max="16384" width="9.8984375" style="27"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="9">
+      <c r="B1" s="26">
         <f ca="1">CalendarYear</f>
         <v>2019</v>
       </c>
     </row>
-    <row r="2" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="10" t="str">
+    <row r="2" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B2" s="28" t="str">
         <f ca="1">UPPER(TEXT(C5,"mmmm"))</f>
         <v>NOVEMBER</v>
       </c>
-      <c r="C2" s="4" t="str">
+      <c r="C2" s="29" t="str">
         <f>UPPER(TEXT(WeekStart,"ddd"))</f>
         <v>SUN</v>
       </c>
-      <c r="D2" s="4" t="str">
+      <c r="D2" s="29" t="str">
         <f t="shared" ref="D2:I2" ca="1" si="0">UPPER(TEXT(D3,"ddd"))</f>
         <v>MON</v>
       </c>
-      <c r="E2" s="4" t="str">
+      <c r="E2" s="29" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>TUE</v>
       </c>
-      <c r="F2" s="4" t="str">
+      <c r="F2" s="29" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>WED</v>
       </c>
-      <c r="G2" s="4" t="str">
+      <c r="G2" s="29" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>THU</v>
       </c>
-      <c r="H2" s="4" t="str">
+      <c r="H2" s="29" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>FRI</v>
       </c>
-      <c r="I2" s="4" t="str">
+      <c r="I2" s="29" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>SAT</v>
       </c>
     </row>
     <row r="3" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="11"/>
-      <c r="C3" s="1">
+      <c r="B3" s="30"/>
+      <c r="C3" s="31">
         <f t="array" aca="1" ref="C3:I3" ca="1">DaysAndWeeks+DATE(CalendarYear,11,1)-WEEKDAY(DATE(CalendarYear,11,1),(WeekStart="Mon")+1)+1</f>
         <v>43765</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="31">
         <f ca="1"/>
         <v>43766</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="31">
         <f ca="1"/>
         <v>43767</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="31">
         <f ca="1"/>
         <v>43768</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="31">
         <f ca="1"/>
         <v>43769</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H3" s="31">
         <f ca="1"/>
         <v>43770</v>
       </c>
-      <c r="I3" s="1">
+      <c r="I3" s="31">
         <f ca="1"/>
         <v>43771</v>
       </c>
     </row>
     <row r="4" spans="2:9" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="44" t="s">
-        <v>50</v>
-      </c>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="41"/>
     </row>
     <row r="5" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="1">
+      <c r="C5" s="31">
         <f t="array" aca="1" ref="C5:I5" ca="1">DaysAndWeeks+DATE(CalendarYear,11,1)-WEEKDAY(DATE(CalendarYear,11,1),(WeekStart="Mon")+1)+8</f>
         <v>43772</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="31">
         <f ca="1"/>
         <v>43773</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="31">
         <f ca="1"/>
         <v>43774</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="31">
         <f ca="1"/>
         <v>43775</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="31">
         <f ca="1"/>
         <v>43776</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5" s="31">
         <f ca="1"/>
         <v>43777</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5" s="31">
         <f ca="1"/>
         <v>43778</v>
       </c>
     </row>
     <row r="6" spans="2:9" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="32"/>
     </row>
     <row r="7" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="1">
+      <c r="C7" s="31">
         <f t="array" aca="1" ref="C7:I7" ca="1">DaysAndWeeks+DATE(CalendarYear,11,1)-WEEKDAY(DATE(CalendarYear,11,1),(WeekStart="Mon")+1)+15</f>
         <v>43779</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="31">
         <f ca="1"/>
         <v>43780</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="31">
         <f ca="1"/>
         <v>43781</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="31">
         <f ca="1"/>
         <v>43782</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="31">
         <f ca="1"/>
         <v>43783</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H7" s="31">
         <f ca="1"/>
         <v>43784</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I7" s="31">
         <f ca="1"/>
         <v>43785</v>
       </c>
     </row>
     <row r="8" spans="2:9" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="32"/>
     </row>
     <row r="9" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C9" s="1">
+      <c r="C9" s="31">
         <f t="array" aca="1" ref="C9:I9" ca="1">DaysAndWeeks+DATE(CalendarYear,11,1)-WEEKDAY(DATE(CalendarYear,11,1),(WeekStart="Mon")+1)+22</f>
         <v>43786</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="31">
         <f ca="1"/>
         <v>43787</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="31">
         <f ca="1"/>
         <v>43788</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="31">
         <f ca="1"/>
         <v>43789</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9" s="31">
         <f ca="1"/>
         <v>43790</v>
       </c>
-      <c r="H9" s="1">
+      <c r="H9" s="31">
         <f ca="1"/>
         <v>43791</v>
       </c>
-      <c r="I9" s="1">
+      <c r="I9" s="31">
         <f ca="1"/>
         <v>43792</v>
       </c>
     </row>
     <row r="10" spans="2:9" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="32"/>
     </row>
     <row r="11" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C11" s="1">
+      <c r="C11" s="31">
         <f t="array" aca="1" ref="C11:I11" ca="1">DaysAndWeeks+DATE(CalendarYear,11,1)-WEEKDAY(DATE(CalendarYear,11,1),(WeekStart="Mon")+1)+29</f>
         <v>43793</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="31">
         <f ca="1"/>
         <v>43794</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="31">
         <f ca="1"/>
         <v>43795</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="31">
         <f ca="1"/>
         <v>43796</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11" s="31">
         <f ca="1"/>
         <v>43797</v>
       </c>
-      <c r="H11" s="1">
+      <c r="H11" s="31">
         <f ca="1"/>
         <v>43798</v>
       </c>
-      <c r="I11" s="1">
+      <c r="I11" s="31">
         <f ca="1"/>
         <v>43799</v>
       </c>
     </row>
     <row r="12" spans="2:9" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="32"/>
     </row>
     <row r="13" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C13" s="1">
+      <c r="C13" s="31">
         <f t="array" aca="1" ref="C13:D13" ca="1">DaysAndWeeks+DATE(CalendarYear,11,1)-WEEKDAY(DATE(CalendarYear,11,1),(WeekStart="Mon")+1)+36</f>
         <v>43800</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="31">
         <f ca="1"/>
         <v>43801</v>
       </c>
-      <c r="E13" s="41" t="s">
+      <c r="E13" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="F13" s="42" t="s">
-        <v>51</v>
-      </c>
-      <c r="G13" s="42"/>
-      <c r="H13" s="42"/>
-      <c r="I13" s="42"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="44"/>
+      <c r="I13" s="44"/>
     </row>
     <row r="14" spans="2:9" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="41"/>
-      <c r="F14" s="42"/>
-      <c r="G14" s="42"/>
-      <c r="H14" s="42"/>
-      <c r="I14" s="42"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="44"/>
+      <c r="H14" s="44"/>
+      <c r="I14" s="44"/>
     </row>
     <row r="15" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3780,29 +3804,29 @@
     <mergeCell ref="E13:E14"/>
     <mergeCell ref="F13:I14"/>
   </mergeCells>
-  <phoneticPr fontId="12" type="noConversion"/>
+  <phoneticPr fontId="11" type="noConversion"/>
   <conditionalFormatting sqref="C11:I11 C13:D13">
-    <cfRule type="expression" dxfId="11" priority="5">
+    <cfRule type="expression" dxfId="9" priority="5">
       <formula>AND(DAY(C11)&gt;=1,DAY(C11)&lt;=15)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:H4">
-    <cfRule type="expression" dxfId="10" priority="4">
+    <cfRule type="expression" dxfId="8" priority="4">
       <formula>DAY(C3)&gt;8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:C14">
-    <cfRule type="expression" dxfId="9" priority="3">
+    <cfRule type="expression" dxfId="7" priority="3">
       <formula>C$2="SUN"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:I12">
-    <cfRule type="expression" dxfId="8" priority="2">
+    <cfRule type="expression" dxfId="6" priority="2">
       <formula>H$2="SAT"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3:I12">
-    <cfRule type="expression" dxfId="7" priority="1">
+    <cfRule type="expression" dxfId="5" priority="1">
       <formula>$I$2="SUN"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3835,282 +3859,280 @@
   <dimension ref="B1:I17"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="F13" sqref="F13:I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.8984375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.8984375" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.59765625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="21.59765625" style="3" customWidth="1"/>
-    <col min="3" max="9" width="18.3984375" style="3" customWidth="1"/>
-    <col min="10" max="10" width="2.59765625" style="3" customWidth="1"/>
-    <col min="11" max="11" width="8.69921875" style="3" customWidth="1"/>
-    <col min="12" max="16384" width="9.8984375" style="3"/>
+    <col min="1" max="1" width="2.59765625" style="27" customWidth="1"/>
+    <col min="2" max="2" width="21.59765625" style="27" customWidth="1"/>
+    <col min="3" max="9" width="18.3984375" style="27" customWidth="1"/>
+    <col min="10" max="10" width="2.59765625" style="27" customWidth="1"/>
+    <col min="11" max="11" width="8.69921875" style="27" customWidth="1"/>
+    <col min="12" max="16384" width="9.8984375" style="27"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="9">
+      <c r="B1" s="26">
         <f ca="1">CalendarYear</f>
         <v>2019</v>
       </c>
     </row>
-    <row r="2" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="10" t="str">
+    <row r="2" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B2" s="28" t="str">
         <f ca="1">UPPER(TEXT(C5,"mmmm"))</f>
         <v>DECEMBER</v>
       </c>
-      <c r="C2" s="4" t="str">
+      <c r="C2" s="29" t="str">
         <f>UPPER(TEXT(WeekStart,"ddd"))</f>
         <v>SUN</v>
       </c>
-      <c r="D2" s="4" t="str">
+      <c r="D2" s="29" t="str">
         <f t="shared" ref="D2:I2" ca="1" si="0">UPPER(TEXT(D3,"ddd"))</f>
         <v>MON</v>
       </c>
-      <c r="E2" s="4" t="str">
+      <c r="E2" s="29" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>TUE</v>
       </c>
-      <c r="F2" s="4" t="str">
+      <c r="F2" s="29" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>WED</v>
       </c>
-      <c r="G2" s="4" t="str">
+      <c r="G2" s="29" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>THU</v>
       </c>
-      <c r="H2" s="4" t="str">
+      <c r="H2" s="29" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>FRI</v>
       </c>
-      <c r="I2" s="4" t="str">
+      <c r="I2" s="29" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>SAT</v>
       </c>
     </row>
     <row r="3" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="11"/>
-      <c r="C3" s="1">
+      <c r="B3" s="30"/>
+      <c r="C3" s="31">
         <f t="array" aca="1" ref="C3:I3" ca="1">DaysAndWeeks+DATE(CalendarYear,12,1)-WEEKDAY(DATE(CalendarYear,12,1),(WeekStart="Mon")+1)+1</f>
         <v>43800</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="31">
         <f ca="1"/>
         <v>43801</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="31">
         <f ca="1"/>
         <v>43802</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="31">
         <f ca="1"/>
         <v>43803</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="31">
         <f ca="1"/>
         <v>43804</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H3" s="31">
         <f ca="1"/>
         <v>43805</v>
       </c>
-      <c r="I3" s="1">
+      <c r="I3" s="31">
         <f ca="1"/>
         <v>43806</v>
       </c>
     </row>
     <row r="4" spans="2:9" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
     </row>
     <row r="5" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="1">
+      <c r="C5" s="31">
         <f t="array" aca="1" ref="C5:I5" ca="1">DaysAndWeeks+DATE(CalendarYear,12,1)-WEEKDAY(DATE(CalendarYear,12,1),(WeekStart="Mon")+1)+8</f>
         <v>43807</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="31">
         <f ca="1"/>
         <v>43808</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="31">
         <f ca="1"/>
         <v>43809</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="31">
         <f ca="1"/>
         <v>43810</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="31">
         <f ca="1"/>
         <v>43811</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5" s="31">
         <f ca="1"/>
         <v>43812</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5" s="31">
         <f ca="1"/>
         <v>43813</v>
       </c>
     </row>
     <row r="6" spans="2:9" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="32"/>
     </row>
     <row r="7" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="1">
+      <c r="C7" s="31">
         <f t="array" aca="1" ref="C7:I7" ca="1">DaysAndWeeks+DATE(CalendarYear,12,1)-WEEKDAY(DATE(CalendarYear,12,1),(WeekStart="Mon")+1)+15</f>
         <v>43814</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="31">
         <f ca="1"/>
         <v>43815</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="31">
         <f ca="1"/>
         <v>43816</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="31">
         <f ca="1"/>
         <v>43817</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="31">
         <f ca="1"/>
         <v>43818</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H7" s="31">
         <f ca="1"/>
         <v>43819</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I7" s="31">
         <f ca="1"/>
         <v>43820</v>
       </c>
     </row>
     <row r="8" spans="2:9" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="32"/>
     </row>
     <row r="9" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C9" s="1">
+      <c r="C9" s="31">
         <f t="array" aca="1" ref="C9:I9" ca="1">DaysAndWeeks+DATE(CalendarYear,12,1)-WEEKDAY(DATE(CalendarYear,12,1),(WeekStart="Mon")+1)+22</f>
         <v>43821</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="31">
         <f ca="1"/>
         <v>43822</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="31">
         <f ca="1"/>
         <v>43823</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="31">
         <f ca="1"/>
         <v>43824</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9" s="31">
         <f ca="1"/>
         <v>43825</v>
       </c>
-      <c r="H9" s="1">
+      <c r="H9" s="31">
         <f ca="1"/>
         <v>43826</v>
       </c>
-      <c r="I9" s="1">
+      <c r="I9" s="31">
         <f ca="1"/>
         <v>43827</v>
       </c>
     </row>
     <row r="10" spans="2:9" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="32"/>
     </row>
     <row r="11" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C11" s="1">
+      <c r="C11" s="31">
         <f t="array" aca="1" ref="C11:I11" ca="1">DaysAndWeeks+DATE(CalendarYear,12,1)-WEEKDAY(DATE(CalendarYear,12,1),(WeekStart="Mon")+1)+29</f>
         <v>43828</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="31">
         <f ca="1"/>
         <v>43829</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="31">
         <f ca="1"/>
         <v>43830</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="31">
         <f ca="1"/>
         <v>43831</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11" s="31">
         <f ca="1"/>
         <v>43832</v>
       </c>
-      <c r="H11" s="1">
+      <c r="H11" s="31">
         <f ca="1"/>
         <v>43833</v>
       </c>
-      <c r="I11" s="1">
+      <c r="I11" s="31">
         <f ca="1"/>
         <v>43834</v>
       </c>
     </row>
     <row r="12" spans="2:9" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="32"/>
     </row>
     <row r="13" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C13" s="1">
+      <c r="C13" s="31">
         <f t="array" aca="1" ref="C13:D13" ca="1">DaysAndWeeks+DATE(CalendarYear,12,1)-WEEKDAY(DATE(CalendarYear,12,1),(WeekStart="Mon")+1)+36</f>
         <v>43835</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="31">
         <f ca="1"/>
         <v>43836</v>
       </c>
-      <c r="E13" s="41" t="s">
+      <c r="E13" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="F13" s="42" t="s">
-        <v>51</v>
-      </c>
-      <c r="G13" s="42"/>
-      <c r="H13" s="42"/>
-      <c r="I13" s="42"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="44"/>
+      <c r="I13" s="44"/>
     </row>
     <row r="14" spans="2:9" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="41"/>
-      <c r="F14" s="42"/>
-      <c r="G14" s="42"/>
-      <c r="H14" s="42"/>
-      <c r="I14" s="42"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="44"/>
+      <c r="H14" s="44"/>
+      <c r="I14" s="44"/>
     </row>
     <row r="15" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4120,29 +4142,29 @@
     <mergeCell ref="E13:E14"/>
     <mergeCell ref="F13:I14"/>
   </mergeCells>
-  <phoneticPr fontId="12" type="noConversion"/>
+  <phoneticPr fontId="11" type="noConversion"/>
   <conditionalFormatting sqref="C11:I11 C13:D13">
-    <cfRule type="expression" dxfId="6" priority="5">
+    <cfRule type="expression" dxfId="4" priority="5">
       <formula>AND(DAY(C11)&gt;=1,DAY(C11)&lt;=15)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:H4">
-    <cfRule type="expression" dxfId="5" priority="4">
+    <cfRule type="expression" dxfId="3" priority="4">
       <formula>DAY(C3)&gt;8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:C14">
-    <cfRule type="expression" dxfId="4" priority="3">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>C$2="SUN"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:I12">
-    <cfRule type="expression" dxfId="3" priority="2">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>H$2="SAT"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3:I12">
-    <cfRule type="expression" dxfId="2" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>$I$2="SUN"</formula>
     </cfRule>
   </conditionalFormatting>
